--- a/src/main/resources/devices/Timekeeper.xlsx
+++ b/src/main/resources/devices/Timekeeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195FE209-CC73-4582-8D64-3394EF6A6FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F574688C-C92C-4568-85B3-6E2FCF90D67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3315" windowWidth="22410" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
+    <workbookView xWindow="4560" yWindow="3660" windowWidth="22410" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
   <sheets>
     <sheet name="TImekeeper" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>pin</t>
   </si>
@@ -100,6 +100,33 @@
   </si>
   <si>
     <t>120</t>
+  </si>
+  <si>
+    <t>Ignore A2 Inputs</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Ignore A3 Inputs</t>
+  </si>
+  <si>
+    <t>Ignore A4 Inputs</t>
+  </si>
+  <si>
+    <t>Ignore A5 Inputs</t>
+  </si>
+  <si>
+    <t>ignore A0 inputs</t>
+  </si>
+  <si>
+    <t>Ignore A1 Inputs</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -135,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -143,6 +170,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FC154-758F-4104-A30E-11A530E91792}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +616,96 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
